--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="13380" yWindow="460" windowWidth="15420" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="First" sheetId="1" r:id="rId1"/>
+    <sheet name="L2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="22">
   <si>
     <t>Width 2</t>
   </si>
@@ -81,6 +82,18 @@
   </si>
   <si>
     <t>Width 8</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -232,7 +245,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -270,10 +283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:f>First!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>28620.0</c:v>
                 </c:pt>
@@ -288,21 +301,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>22246.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25708.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36767.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22153.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24438.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +324,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -364,10 +362,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:f>First!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>76048.0</c:v>
                 </c:pt>
@@ -382,21 +380,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37033.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51902.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>82257.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86471.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47674.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51923.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,7 +403,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -458,10 +441,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$B$39</c:f>
+              <c:f>First!$B$30:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32011.0</c:v>
                 </c:pt>
@@ -476,21 +459,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20109.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23547.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26831.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38997.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22517.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25632.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -552,10 +520,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$52</c:f>
+              <c:f>First!$B$43:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>88540.0</c:v>
                 </c:pt>
@@ -570,21 +538,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>46685.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>58268.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100789.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>175570.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84516.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10304.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,11 +552,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557098640"/>
-        <c:axId val="557271216"/>
+        <c:axId val="-2127137904"/>
+        <c:axId val="2137056640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="557098640"/>
+        <c:axId val="-2127137904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +635,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -701,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557271216"/>
+        <c:crossAx val="2137056640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557271216"/>
+        <c:axId val="2137056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,7 +774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557098640"/>
+        <c:crossAx val="-2127137904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,9 +792,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.796481343022033"/>
+          <c:x val="0.70306300884364"/>
           <c:y val="0.106593905260703"/>
-          <c:w val="0.202034977452744"/>
+          <c:w val="0.295453299229316"/>
           <c:h val="0.217540939501013"/>
         </c:manualLayout>
       </c:layout>
@@ -1018,7 +971,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1056,10 +1009,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$12</c:f>
+              <c:f>First!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>49238.0</c:v>
                 </c:pt>
@@ -1074,21 +1027,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54843.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43695.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42191.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65499.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37320.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47273.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1050,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1150,10 +1088,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$25</c:f>
+              <c:f>First!$C$16:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>130832.0</c:v>
                 </c:pt>
@@ -1168,21 +1106,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>80773.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94942.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134997.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>154046.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80314.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100438.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1129,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1244,10 +1167,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$C$39</c:f>
+              <c:f>First!$C$30:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>55072.0</c:v>
                 </c:pt>
@@ -1262,21 +1185,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43860.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43598.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44034.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>69472.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37934.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49582.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1300,7 +1208,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1338,10 +1246,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$C$52</c:f>
+              <c:f>First!$C$43:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>152324.0</c:v>
                 </c:pt>
@@ -1356,21 +1264,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>101825.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>106586.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>165411.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>312773.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>142381.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>213368.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,11 +1278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="567559648"/>
-        <c:axId val="729975936"/>
+        <c:axId val="-2125708688"/>
+        <c:axId val="-2125702736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="567559648"/>
+        <c:axId val="-2125708688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1361,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1487,7 +1380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729975936"/>
+        <c:crossAx val="-2125702736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1495,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="729975936"/>
+        <c:axId val="-2125702736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567559648"/>
+        <c:crossAx val="-2125708688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1625,9 +1518,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.796481343022033"/>
-          <c:y val="0.106593905260703"/>
-          <c:w val="0.202034977452744"/>
+          <c:x val="0.682557227814877"/>
+          <c:y val="0.0339193828969053"/>
+          <c:w val="0.313849297318848"/>
           <c:h val="0.217540939501013"/>
         </c:manualLayout>
       </c:layout>
@@ -1804,7 +1697,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1842,10 +1735,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>First!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3494.07</c:v>
                 </c:pt>
@@ -1860,21 +1753,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4495.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4237.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3889.86</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2719.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4514.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4091.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,7 +1776,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1936,10 +1814,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$25</c:f>
+              <c:f>First!$D$16:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1314.97</c:v>
                 </c:pt>
@@ -1954,21 +1832,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2700.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>338.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1215.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1156.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2097.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1925.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,7 +1855,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2030,10 +1893,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$30:$D$39</c:f>
+              <c:f>First!$D$30:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3123.89</c:v>
                 </c:pt>
@@ -2048,21 +1911,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4972.83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4246.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3727.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2564.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4441.08</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3901.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +1934,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$43:$A$52</c:f>
+              <c:f>First!$A$43:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2124,10 +1972,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$52</c:f>
+              <c:f>First!$D$43:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1129.43</c:v>
                 </c:pt>
@@ -2142,21 +1990,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2142.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>301.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>992.18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>569.58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1183.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>906.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,11 +2004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="679097280"/>
-        <c:axId val="679320624"/>
+        <c:axId val="-2125651984"/>
+        <c:axId val="-2125646032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="679097280"/>
+        <c:axId val="-2125651984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2088,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2274,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679320624"/>
+        <c:crossAx val="-2125646032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,7 +2115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="679320624"/>
+        <c:axId val="-2125646032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679097280"/>
+        <c:crossAx val="-2125651984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,9 +2241,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.796481343022033"/>
+          <c:x val="0.711770677425652"/>
           <c:y val="0.106593905260703"/>
-          <c:w val="0.202034977452744"/>
+          <c:w val="0.286745786425457"/>
           <c:h val="0.217540939501013"/>
         </c:manualLayout>
       </c:layout>
@@ -2463,6 +2296,3231 @@
         <a:schemeClr val="tx1">
           <a:lumMod val="75000"/>
           <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instruction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Width2 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$35:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23600.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25708.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36767.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22153.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24438.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Width2 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$35:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$B$21:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51902.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82257.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86471.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47674.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51923.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Width8 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$35:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$B$35:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23547.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26831.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38997.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22517.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25632.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Width8 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$35:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>58268.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100789.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175570.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84516.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110304.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2069039792"/>
+        <c:axId val="-2069693392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2069039792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2069693392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2069693392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Instrunctions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> per second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2069039792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.657752947066588"/>
+          <c:y val="0.106593905260703"/>
+          <c:w val="0.340763278867598"/>
+          <c:h val="0.249359162491052"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Operation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Width2 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43695.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42191.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65499.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37320.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47273.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Width2 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$C$21:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134997.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154046.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80314.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100438.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Width8 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$C$35:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43598.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44034.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69472.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37934.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49582.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Width8 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$C$48:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>106586.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165411.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312773.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142381.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213368.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2077402704"/>
+        <c:axId val="-2115209632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2077402704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115209632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115209632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Operations </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t>per second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2077402704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.636759076990376"/>
+          <c:y val="0.106593905260703"/>
+          <c:w val="0.361757254301546"/>
+          <c:h val="0.217540939501013"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Width2 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$D$8:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4237.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3889.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4514.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4091.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Width2 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$D$21:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>338.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1215.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1156.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2097.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1925.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Width8 Encrypt/Decrypt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$D$35:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4246.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3727.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2564.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4441.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3901.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Width8 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>First!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>First!$D$48:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>301.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>992.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1183.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>906.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2067400240"/>
+        <c:axId val="-2071882768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2067400240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071882768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071882768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t>Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2067400240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.691361056430446"/>
+          <c:y val="0.00324198302027888"/>
+          <c:w val="0.302034940944882"/>
+          <c:h val="0.172848282232877"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instructions per cycle</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> II</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.104924733672997"/>
+          <c:y val="0.157669376693767"/>
+          <c:w val="0.844063554555681"/>
+          <c:h val="0.715221390009176"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Width2 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.424227046688796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.501036115668494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.368769845812083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.316512563538394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.198840517040372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Width8 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.693058364175156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.506449862430632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.506002603007449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.251247027102649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Width2 Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>astar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bwaves</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bzip2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GemsFDTD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00936277190617302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.361411050487322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00344750107045502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00404865165062044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00174664343461322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2077917712"/>
+        <c:axId val="-2080441280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2077917712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2080441280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2080441280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2077917712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.708527922980216"/>
+          <c:y val="0.260986065766169"/>
+          <c:w val="0.226145281135633"/>
+          <c:h val="0.178628878014854"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Instructions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per cycle</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Normalized I</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.157057148516813"/>
+          <c:y val="0.144683098591549"/>
+          <c:w val="0.769730352102214"/>
+          <c:h val="0.596186924697793"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Width2 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$8:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$8:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.180736896994671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49296212920922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469100944968013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.199958029684459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.291601273523514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Width8 Normal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$8:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$G$8:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19141516273036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.752271272378869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.842085203979973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.209185139964643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.396083194492138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Width2 Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'L2'!$E$8:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gobmk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hmmer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>libquantum</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mcf</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>omnetpp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$22:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00043581297349087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00920845680661011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.435913447882619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000214091003514484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00154781436402254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2082382864"/>
+        <c:axId val="-2078841728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2082382864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2078841728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2078841728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normailized IPC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082382864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.643768632694498"/>
+          <c:y val="0.17511367417101"/>
+          <c:w val="0.252457782399841"/>
+          <c:h val="0.199385050460242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2607,6 +5665,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4116,18 +7374,2533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -4156,10 +9929,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4188,10 +9961,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4207,6 +9980,169 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4480,8 +10416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5125,13 +11061,473 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>10304</v>
+        <v>110304</v>
       </c>
       <c r="C52">
         <v>213368</v>
       </c>
       <c r="D52">
         <v>906.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1.0006710000000001</v>
+      </c>
+      <c r="C3">
+        <f>(B3)/$J$3</f>
+        <v>0.42422704668879652</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1.6347929999999999</v>
+      </c>
+      <c r="G3">
+        <f>(F3)/$J$3</f>
+        <v>0.69305836417515609</v>
+      </c>
+      <c r="J3">
+        <v>2.3588100000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1.1818489999999999</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="0">(B4)/$J$3</f>
+        <v>0.50103611566849382</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2.3588100000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="1">(F4)/$J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.86985800000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.36876984581208322</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>1.1946190000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.50644986243063239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.74659299999999995</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.31651256353839435</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1.1935640000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.5060026030074487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.46902700000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.19884051704037206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0.59264399999999995</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.25124702710264918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.42632399999999998</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.18073689699467102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0.45151200000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.1914151627303598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.1628039999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.49296212920921989</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1.774465</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.75227127237886893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1.1065199999999999</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.46910094496801352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>1.9863189999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.84208520397997288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.471663</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.19995802968445953</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>0.49342799999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.20918513996464316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.687832</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.29160127352351395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>0.93428500000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.39608319449213797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2.2085E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C26" si="2">(B17)/$J$3</f>
+        <v>9.3627719061730279E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>0.36141105048732203</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>8.1320000000000003E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>3.4475010704550176E-3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>4.0486516506204398E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4.1200000000000004E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>1.7466434346132161E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1.0280000000000001E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>4.3581297349087043E-4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2.1721000000000001E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>9.2084568066101123E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1.0282370000000001</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>0.43591344788261882</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>2.14091003514484E-4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>3.6510000000000002E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>1.5478143640225367E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -4608,6 +4608,47 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Width8 Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$G$17:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00947384486245183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.565413916339171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00348353618985844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00414700632946274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00176360113786189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4854,7 +4895,7 @@
           <c:x val="0.708527922980216"/>
           <c:y val="0.260986065766169"/>
           <c:w val="0.226145281135633"/>
-          <c:h val="0.178628878014854"/>
+          <c:h val="0.238171837353138"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5214,6 +5255,47 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.00154781436402254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Width8 Modified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$G$22:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.000436236916072087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00925805808861248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.740461079951331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000214091003514484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00155374956015957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,8 +5553,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.643768632694498"/>
           <c:y val="0.17511367417101"/>
-          <c:w val="0.252457782399841"/>
-          <c:h val="0.199385050460242"/>
+          <c:w val="0.252457782399842"/>
+          <c:h val="0.265846733946989"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10118,16 +10200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10416,8 +10498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11080,8 +11162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11380,7 +11462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -11394,8 +11476,15 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
+      <c r="F17">
+        <v>2.2346999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G26" si="3">(F17)/$J$3</f>
+        <v>9.4738448624518291E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -11409,8 +11498,15 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
+      <c r="F18">
+        <v>1.333704</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.56541391633917104</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -11424,8 +11520,15 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
+      <c r="F19">
+        <v>8.2170000000000003E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>3.4835361898584456E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -11439,8 +11542,15 @@
       <c r="E20" t="s">
         <v>10</v>
       </c>
+      <c r="F20">
+        <v>9.7820000000000008E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>4.1470063294627374E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -11454,8 +11564,15 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
+      <c r="F21">
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1.7636011378618878E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -11469,8 +11586,15 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
+      <c r="F22">
+        <v>1.029E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>4.3623691607208717E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -11484,8 +11608,15 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
+      <c r="F23">
+        <v>2.1838E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>9.258058088612478E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -11499,8 +11630,15 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
+      <c r="F24">
+        <v>1.746607</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.74046107995133137</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -11514,8 +11652,15 @@
       <c r="E25" t="s">
         <v>13</v>
       </c>
+      <c r="F25">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>2.14091003514484E-4</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -11528,6 +11673,13 @@
       </c>
       <c r="E26" t="s">
         <v>14</v>
+      </c>
+      <c r="F26">
+        <v>3.6649999999999999E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1.5537495601595718E-3</v>
       </c>
     </row>
   </sheetData>

--- a/results/Results.xlsx
+++ b/results/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="15420" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
@@ -552,11 +552,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127137904"/>
-        <c:axId val="2137056640"/>
+        <c:axId val="2121466528"/>
+        <c:axId val="2121458512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127137904"/>
+        <c:axId val="2121466528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2137056640"/>
+        <c:crossAx val="2121458512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137056640"/>
+        <c:axId val="2121458512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127137904"/>
+        <c:crossAx val="2121466528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,7 +795,7 @@
           <c:x val="0.70306300884364"/>
           <c:y val="0.106593905260703"/>
           <c:w val="0.295453299229316"/>
-          <c:h val="0.217540939501013"/>
+          <c:h val="0.187448417906095"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -818,7 +818,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1278,11 +1278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125708688"/>
-        <c:axId val="-2125702736"/>
+        <c:axId val="-2145485568"/>
+        <c:axId val="-2145479616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125708688"/>
+        <c:axId val="-2145485568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1380,7 +1380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125702736"/>
+        <c:crossAx val="-2145479616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125702736"/>
+        <c:axId val="-2145479616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125708688"/>
+        <c:crossAx val="-2145485568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1518,10 +1518,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.682557227814877"/>
+          <c:x val="0.710737539148186"/>
           <c:y val="0.0339193828969053"/>
-          <c:w val="0.313849297318848"/>
-          <c:h val="0.217540939501013"/>
+          <c:w val="0.285668910951348"/>
+          <c:h val="0.173559529017206"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1544,7 +1544,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2004,11 +2004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125651984"/>
-        <c:axId val="-2125646032"/>
+        <c:axId val="-2145425232"/>
+        <c:axId val="-2145419280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125651984"/>
+        <c:axId val="-2145425232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125646032"/>
+        <c:crossAx val="-2145419280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2115,7 +2115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125646032"/>
+        <c:axId val="-2145419280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125651984"/>
+        <c:crossAx val="-2145425232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,10 +2241,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.711770677425652"/>
+          <c:x val="0.721835019716738"/>
           <c:y val="0.106593905260703"/>
-          <c:w val="0.286745786425457"/>
-          <c:h val="0.217540939501013"/>
+          <c:w val="0.276681311575183"/>
+          <c:h val="0.171244714202391"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2267,7 +2267,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2667,11 +2667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069039792"/>
-        <c:axId val="-2069693392"/>
+        <c:axId val="-2146011104"/>
+        <c:axId val="-2146017072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069039792"/>
+        <c:axId val="-2146011104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069693392"/>
+        <c:crossAx val="-2146017072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2777,7 +2777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069693392"/>
+        <c:axId val="-2146017072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069039792"/>
+        <c:crossAx val="-2146011104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2907,10 +2907,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.657752947066588"/>
+          <c:x val="0.712100751898766"/>
           <c:y val="0.106593905260703"/>
-          <c:w val="0.340763278867598"/>
-          <c:h val="0.249359162491052"/>
+          <c:w val="0.286415420898475"/>
+          <c:h val="0.186859142607174"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2933,7 +2933,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3333,11 +3333,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077402704"/>
-        <c:axId val="-2115209632"/>
+        <c:axId val="-2146069024"/>
+        <c:axId val="-2146074992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077402704"/>
+        <c:axId val="-2146069024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +3435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115209632"/>
+        <c:crossAx val="-2146074992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3443,7 +3443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115209632"/>
+        <c:axId val="-2146074992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077402704"/>
+        <c:crossAx val="-2146069024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3573,10 +3573,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.636759076990376"/>
+          <c:x val="0.693119745901327"/>
           <c:y val="0.106593905260703"/>
-          <c:w val="0.361757254301546"/>
-          <c:h val="0.217540939501013"/>
+          <c:w val="0.305396585390594"/>
+          <c:h val="0.19439286235054"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3599,7 +3599,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3999,11 +3999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2067400240"/>
-        <c:axId val="-2071882768"/>
+        <c:axId val="-2146124352"/>
+        <c:axId val="-2146130320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2067400240"/>
+        <c:axId val="-2146124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071882768"/>
+        <c:crossAx val="-2146130320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4110,7 +4110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071882768"/>
+        <c:axId val="-2146130320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,7 +4218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067400240"/>
+        <c:crossAx val="-2146124352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4236,10 +4236,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.691361056430446"/>
-          <c:y val="0.00324198302027888"/>
-          <c:w val="0.302034940944882"/>
-          <c:h val="0.172848282232877"/>
+          <c:x val="0.711489913398506"/>
+          <c:y val="0.0148160906969962"/>
+          <c:w val="0.281906088731662"/>
+          <c:h val="0.128866834354039"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4262,7 +4262,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4361,11 +4361,6 @@
               <a:rPr lang="en-US"/>
               <a:t>Normalized</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> II</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4658,11 +4653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077917712"/>
-        <c:axId val="-2080441280"/>
+        <c:axId val="2121431712"/>
+        <c:axId val="2121425744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077917712"/>
+        <c:axId val="2121431712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,7 +4755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080441280"/>
+        <c:crossAx val="2121425744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4768,7 +4763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080441280"/>
+        <c:axId val="2121425744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4874,7 +4869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077917712"/>
+        <c:crossAx val="2121431712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4894,8 +4889,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.708527922980216"/>
           <c:y val="0.260986065766169"/>
-          <c:w val="0.226145281135633"/>
-          <c:h val="0.238171837353138"/>
+          <c:w val="0.210042222982997"/>
+          <c:h val="0.157153324584427"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4915,7 +4910,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5016,7 +5011,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Normalized I</a:t>
+              <a:t>Normalized</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5310,11 +5305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2082382864"/>
-        <c:axId val="-2078841728"/>
+        <c:axId val="2121350256"/>
+        <c:axId val="2121344176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2082382864"/>
+        <c:axId val="2121350256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5399,7 +5394,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5418,7 +5413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2078841728"/>
+        <c:crossAx val="2121344176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5426,7 +5421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078841728"/>
+        <c:axId val="2121344176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5533,7 +5528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082382864"/>
+        <c:crossAx val="2121350256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5551,10 +5546,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.643768632694498"/>
+          <c:x val="0.671948977392319"/>
           <c:y val="0.17511367417101"/>
-          <c:w val="0.252457782399842"/>
-          <c:h val="0.265846733946989"/>
+          <c:w val="0.224277422749692"/>
+          <c:h val="0.152420895304754"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5574,7 +5569,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9982,9 +9977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10012,9 +10007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>530860</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10044,9 +10039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10069,16 +10064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10101,16 +10096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10140,9 +10135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10176,10 +10171,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10200,16 +10195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>73660</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10498,7 +10493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -11162,8 +11157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
